--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain DESSART\Desktop\Performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CC2722-68BF-42C0-82EC-4170CA547CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954312A7-1484-42A1-B8C5-48982FB7521D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{45B85E42-B38F-418A-A365-D3DBE0501AAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Function</t>
   </si>
@@ -75,7 +75,94 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Create an aircraft at the specified position and altitude</t>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>TAKEOFF</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>TARGET ALT</t>
+  </si>
+  <si>
+    <t>Mass of aircraft in kg</t>
+  </si>
+  <si>
+    <t>Starting speed in m/s</t>
+  </si>
+  <si>
+    <t>is aircraft taking off</t>
+  </si>
+  <si>
+    <t>target altitude in kg</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GND LVL</t>
+  </si>
+  <si>
+    <t>Ground Level in m</t>
+  </si>
+  <si>
+    <t>ALT if  ALT &gt; GND LVL else 6.000 ft</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Create an aircraft with the specified data. By default aircraft is froozen and not displayed to atc</t>
+  </si>
+  <si>
+    <t>PAUSE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>aircraft id</t>
+  </si>
+  <si>
+    <t>is paused ?</t>
+  </si>
+  <si>
+    <t>1 = Success; 0 = Failure</t>
+  </si>
+  <si>
+    <t>ID of the aircraft. If Id &lt; 0 then there is an error</t>
+  </si>
+  <si>
+    <t>Freeze or unfreeze aircraft. Server don't show paused aircraft</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>STATIC</t>
+  </si>
+  <si>
+    <t>Draw as static</t>
+  </si>
+  <si>
+    <t>Aircraft id</t>
+  </si>
+  <si>
+    <t>Make an aircraft static. Same as delete, but aircraft still exist in the server memory.</t>
+  </si>
+  <si>
+    <t>Delete an aircraft from the server. If Static is true, visual system draw it as a static aircraft (not updated). New visual connecting WILL NOT SEE AIRCRAFT</t>
   </si>
 </sst>
 </file>
@@ -115,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,24 +229,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -173,24 +242,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -204,40 +255,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,18 +625,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF8CD48-6709-4D5F-AA62-1E186042693D}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30" customWidth="1"/>
+    <col min="21" max="21" width="51.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,11 +662,24 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
@@ -600,72 +697,501 @@
         <v>4</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="9">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9">
+        <v>7</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9">
+        <v>10</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="54">
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F9:S11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D12:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:S8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
